--- a/PrototypeWatershedSimulation/bin/Debug/summary.xlsx
+++ b/PrototypeWatershedSimulation/bin/Debug/summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudio_Mestrado\DMP_Hydrology\PrototypeWatershedSimulation\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14C9492-7F36-4F11-B177-08EFD5B081C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C450F0-D3D5-4163-AD00-346E8A613C28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B9F273B-B394-48B5-ADBD-33B8E86C2426}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0B9F273B-B394-48B5-ADBD-33B8E86C2426}"/>
   </bookViews>
   <sheets>
     <sheet name="CalibrationBuWo" sheetId="5" r:id="rId1"/>
@@ -408,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D3F31B-9EF7-486C-A489-576A5F146E64}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22005,8 +22005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C81545-0431-4650-8108-5FC7F1B9E778}">
   <dimension ref="A1:I736"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43271,23 +43271,23 @@
     <row r="734">
       <c r="B734" s="0">
         <f>COUNTIF(B3:B733,B3)</f>
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="C734" s="0">
         <f ref="C734:I734" t="shared" si="0">COUNTIF(C3:C733,C3)</f>
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D734" s="0">
         <f t="shared" si="0"/>
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="E734" s="0">
         <f t="shared" si="0"/>
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="F734" s="0">
         <f t="shared" si="0"/>
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="G734" s="0">
         <f t="shared" si="0"/>
@@ -43299,7 +43299,7 @@
       </c>
       <c r="I734" s="0">
         <f t="shared" si="0"/>
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="735">
@@ -43339,23 +43339,23 @@
     <row r="736">
       <c r="B736" s="0">
         <f>B735-B734</f>
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C736" s="0">
         <f ref="C736:I736" t="shared" si="2">C735-C734</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D736" s="0">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E736" s="0">
         <f t="shared" si="2"/>
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F736" s="0">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G736" s="0">
         <f t="shared" si="2"/>
@@ -43367,7 +43367,7 @@
       </c>
       <c r="I736" s="0">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -66885,7 +66885,7 @@
   <dimension ref="A1:J737"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -90385,19 +90385,19 @@
       </c>
       <c r="C735" s="0">
         <f ref="C735:J735" t="shared" si="0">COUNTIF(C4:C734,C4)</f>
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="D735" s="0">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="E735" s="0">
         <f t="shared" si="0"/>
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F735" s="0">
         <f t="shared" si="0"/>
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="G735" s="0">
         <f t="shared" si="0"/>
@@ -90413,7 +90413,7 @@
       </c>
       <c r="J735" s="0">
         <f t="shared" si="0"/>
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="736">
@@ -90461,19 +90461,19 @@
       </c>
       <c r="C737" s="0">
         <f ref="C737:J737" t="shared" si="2">C736-C735</f>
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D737" s="0">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E737" s="0">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F737" s="0">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G737" s="0">
         <f t="shared" si="2"/>
@@ -90489,7 +90489,7 @@
       </c>
       <c r="J737" s="0">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
